--- a/requirements/CQs.xlsx
+++ b/requirements/CQs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>CQ id</t>
   </si>
@@ -46,6 +46,48 @@
   </si>
   <si>
     <t>CQ</t>
+  </si>
+  <si>
+    <t>What are the realizations of an ensemble?</t>
+  </si>
+  <si>
+    <t>What is the baseline realization(s) of an ensemble?</t>
+  </si>
+  <si>
+    <t>Does a specific ensemble contain any other ensembles?</t>
+  </si>
+  <si>
+    <t>Ensemble, hasRealization, Realization</t>
+  </si>
+  <si>
+    <t>Ensemble, hasReference, Realization</t>
+  </si>
+  <si>
+    <t>Ensemble, hasEnsemble, Ensemble</t>
+  </si>
+  <si>
+    <t>has realization is subprop of dcterms:hasPart</t>
+  </si>
+  <si>
+    <t>has ensemble is subprop of dcterms:hasPart</t>
+  </si>
+  <si>
+    <t>What is the executable workflow of a realization?</t>
+  </si>
+  <si>
+    <t>What is the workflow template of a realization?</t>
+  </si>
+  <si>
+    <t>Provenance of the execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provenance of the execution </t>
+  </si>
+  <si>
+    <t>Which workflow templates have been executed in an ensemle?</t>
+  </si>
+  <si>
+    <t>What is the high-level workflow associated to an ensemble?</t>
   </si>
 </sst>
 </file>
@@ -363,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,31 +436,70 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -465,23 +546,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
     </row>

--- a/requirements/CQs.xlsx
+++ b/requirements/CQs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>CQ id</t>
   </si>
@@ -88,6 +88,39 @@
   </si>
   <si>
     <t>What is the high-level workflow associated to an ensemble?</t>
+  </si>
+  <si>
+    <t>What is the specification of an ensemble?</t>
+  </si>
+  <si>
+    <t>What is the ensemble specification of an ensemble?</t>
+  </si>
+  <si>
+    <t>What is the region associated to a modeling question?</t>
+  </si>
+  <si>
+    <t>What are the ensemble specifications of a modeling question?</t>
+  </si>
+  <si>
+    <t>What are the ensembles of a modeling question?</t>
+  </si>
+  <si>
+    <t>Which data was selected to run the ensembles in a modeling question?</t>
+  </si>
+  <si>
+    <t>Which interventions are associated to a modeling question?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which values in particular were changed in as part of an intervention in the realizations of an ensemble? </t>
+  </si>
+  <si>
+    <t>What is the theme of an ensemble?</t>
+  </si>
+  <si>
+    <t>What are the templates associated to an ensemble?</t>
+  </si>
+  <si>
+    <t>What are the workflow templates associated to a modeling question?</t>
   </si>
 </sst>
 </file>
@@ -407,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,55 +538,88 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">

--- a/requirements/CQs.xlsx
+++ b/requirements/CQs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>CQ id</t>
   </si>
@@ -87,15 +87,9 @@
     <t>Which workflow templates have been executed in an ensemle?</t>
   </si>
   <si>
-    <t>What is the high-level workflow associated to an ensemble?</t>
-  </si>
-  <si>
     <t>What is the specification of an ensemble?</t>
   </si>
   <si>
-    <t>What is the ensemble specification of an ensemble?</t>
-  </si>
-  <si>
     <t>What is the region associated to a modeling question?</t>
   </si>
   <si>
@@ -117,10 +111,145 @@
     <t>What is the theme of an ensemble?</t>
   </si>
   <si>
-    <t>What are the templates associated to an ensemble?</t>
-  </si>
-  <si>
-    <t>What are the workflow templates associated to a modeling question?</t>
+    <t>What are the templates associated to an ensemble? (multiple if a nested ensemble)</t>
+  </si>
+  <si>
+    <t>Are there any other ensembles in a given ensemble?</t>
+  </si>
+  <si>
+    <t>What was the common data used for all the realizations of an ensemble</t>
+  </si>
+  <si>
+    <t>What does this intervention do?</t>
+  </si>
+  <si>
+    <t>What type of question is the modeling question at hand?</t>
+  </si>
+  <si>
+    <t>What is the baseline realization of an intervention (counterfactual question)</t>
+  </si>
+  <si>
+    <t>CQ5</t>
+  </si>
+  <si>
+    <t>CQ6</t>
+  </si>
+  <si>
+    <t>CQ7</t>
+  </si>
+  <si>
+    <t>CQ8</t>
+  </si>
+  <si>
+    <t>CQ9</t>
+  </si>
+  <si>
+    <t>CQ10</t>
+  </si>
+  <si>
+    <t>CQ11</t>
+  </si>
+  <si>
+    <t>CQ12</t>
+  </si>
+  <si>
+    <t>CQ13</t>
+  </si>
+  <si>
+    <t>CQ14</t>
+  </si>
+  <si>
+    <t>CQ15</t>
+  </si>
+  <si>
+    <t>CQ16</t>
+  </si>
+  <si>
+    <t>CQ17</t>
+  </si>
+  <si>
+    <t>CQ18</t>
+  </si>
+  <si>
+    <t>CQ19</t>
+  </si>
+  <si>
+    <t>CQ20</t>
+  </si>
+  <si>
+    <t>CQ21</t>
+  </si>
+  <si>
+    <t>CQ22</t>
+  </si>
+  <si>
+    <t>CQ23</t>
+  </si>
+  <si>
+    <t>Realization, opmw:correspondsToTemplate, ExecutableWorkflow</t>
+  </si>
+  <si>
+    <t>Realization, opmw:correspondsToTemplate, WorkflowTemplate</t>
+  </si>
+  <si>
+    <t>Ensemble, hasWorkfowTemplate, WorkflowTemplate</t>
+  </si>
+  <si>
+    <t>Ensemble, prov:wasDerivedFrom, EnsembleSpecification</t>
+  </si>
+  <si>
+    <t>ModelingQuestion, hasRegion, Region</t>
+  </si>
+  <si>
+    <t>Region is a place holder for location ontologies.</t>
+  </si>
+  <si>
+    <t>What is this intervention on? (a parameter? A dataset?)</t>
+  </si>
+  <si>
+    <t>Intervention, hasBaseline, Realization</t>
+  </si>
+  <si>
+    <t>ModelingQuestion, hasEnsembleSpecification, EnsembleSpecification</t>
+  </si>
+  <si>
+    <t>ModelingQuestion, hasEnsemble, Ensemble</t>
+  </si>
+  <si>
+    <t>ModelingQuestion, hasDataSpecification, DataSpecification</t>
+  </si>
+  <si>
+    <t>ModelingQuestion, hasIntervention, Intervention</t>
+  </si>
+  <si>
+    <t>InterventionSpecification, hasPart, &lt;Thing&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We could define a property for this, but the intervention specification indicates the </t>
+  </si>
+  <si>
+    <t>EnsembleSpecification, hasTheme, &lt;Thing&gt;</t>
+  </si>
+  <si>
+    <t>EnsembleSpecification, hasWorkflowTemplate, WorkflowTemplate</t>
+  </si>
+  <si>
+    <t>Ensemble, hasNestedEnsemble, Ensemble</t>
+  </si>
+  <si>
+    <t>Intervention, dcterms:description, string</t>
+  </si>
+  <si>
+    <t>What is the high-level workflow associated to an modeling question?</t>
+  </si>
+  <si>
+    <t>ModelingQuestion,hasHighLevelWorkflow, HighLevelWorkflow</t>
+  </si>
+  <si>
+    <t>ModelingQuestion, PrognosticQuestion, DiagnosticQuestion, CounterFactualQuestion</t>
+  </si>
+  <si>
+    <t>Intervention, hasPart, &lt;Thing&gt;</t>
   </si>
 </sst>
 </file>
@@ -438,15 +567,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="2" max="2" width="88.88671875" customWidth="1"/>
     <col min="3" max="3" width="41.77734375" customWidth="1"/>
     <col min="4" max="4" width="36.44140625" customWidth="1"/>
   </cols>
@@ -511,177 +640,247 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
         <v>8</v>
       </c>
     </row>
